--- a/databaseTable.xlsx
+++ b/databaseTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Result\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Result\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A12AAA-8F2A-4DB8-B432-DEDD45583798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85F068-6EFD-4619-A07A-73442FA8CB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Student</t>
   </si>
   <si>
-    <t>grade_code</t>
-  </si>
-  <si>
     <t>sub_name</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>is_active</t>
+  </si>
+  <si>
+    <t>grade_id</t>
+  </si>
+  <si>
+    <t>sub_id</t>
   </si>
 </sst>
 </file>
@@ -368,18 +371,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -396,12 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,6 +397,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S23"/>
+  <dimension ref="B1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="Q9" sqref="Q9:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,32 +714,32 @@
     <col min="19" max="19" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="24"/>
-      <c r="I2" s="2" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="19"/>
+      <c r="I2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -744,26 +748,26 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="7"/>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -775,71 +779,71 @@
       <c r="Q3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10"/>
-      <c r="I4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="6"/>
-      <c r="M4" s="5"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="7" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="I8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
+      <c r="Q8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="24"/>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -848,105 +852,108 @@
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="G9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="5" t="s">
+      <c r="O9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
+      <c r="R9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="5"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="6"/>
-      <c r="Q10" s="5"/>
+      <c r="O10" s="3"/>
+      <c r="Q10" s="2"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="13" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="I14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="N14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
         <v>26</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="I14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="N14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -954,105 +961,105 @@
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="N15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
+      <c r="O15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
-      <c r="I16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="6"/>
-      <c r="N16" s="5"/>
+      <c r="K16" s="3"/>
+      <c r="N16" s="2"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="20"/>
+      <c r="B20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="C21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
